--- a/Team-Data/2007-08/2-12-2007-08.xlsx
+++ b/Team-Data/2007-08/2-12-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.449</v>
+        <v>0.458</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.442</v>
@@ -693,37 +760,37 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O2" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P2" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X2" t="n">
         <v>5.8</v>
@@ -735,19 +802,19 @@
         <v>21.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>16</v>
@@ -762,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
@@ -771,13 +838,13 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,28 +933,28 @@
         <v>35.6</v>
       </c>
       <c r="J3" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L3" t="n">
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P3" t="n">
         <v>27.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R3" t="n">
         <v>9.699999999999999</v>
@@ -902,31 +969,31 @@
         <v>21.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
         <v>8.9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>21.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -971,7 +1038,7 @@
         <v>25</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -980,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>25</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1144,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="AP4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1162,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.392</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1236,22 +1303,22 @@
         <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="M5" t="n">
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
         <v>13.5</v>
@@ -1260,13 +1327,13 @@
         <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U5" t="n">
         <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1275,34 +1342,34 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1344,13 +1411,13 @@
         <v>18</v>
       </c>
       <c r="AV5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW5" t="n">
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
@@ -1359,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1517,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1720,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -1758,49 +1825,49 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
         <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.627</v>
+        <v>0.62</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M8" t="n">
         <v>18.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.761</v>
       </c>
       <c r="R8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S8" t="n">
         <v>32.8</v>
@@ -1821,25 +1888,25 @@
         <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AC8" t="n">
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1848,13 +1915,13 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1878,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1887,7 +1954,7 @@
         <v>2</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1902,16 +1969,16 @@
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1973,34 +2040,34 @@
         <v>0.377</v>
       </c>
       <c r="O9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P9" t="n">
         <v>24.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y9" t="n">
         <v>3.6</v>
@@ -2012,13 +2079,13 @@
         <v>20.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2039,7 +2106,7 @@
         <v>20</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2063,10 +2130,10 @@
         <v>15</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2242,7 +2309,7 @@
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2433,13 +2500,13 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -2486,43 +2553,43 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.404</v>
+        <v>0.412</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M12" t="n">
         <v>24.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q12" t="n">
         <v>0.765</v>
@@ -2534,19 +2601,19 @@
         <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V12" t="n">
         <v>16</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.1</v>
@@ -2555,28 +2622,28 @@
         <v>24.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2621,10 +2688,10 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2791,7 +2858,7 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
         <v>25</v>
@@ -2806,7 +2873,7 @@
         <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
@@ -2821,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2940,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2982,7 +3049,7 @@
         <v>5</v>
       </c>
       <c r="AV14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2991,10 +3058,10 @@
         <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.275</v>
+        <v>0.26</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,7 +3117,7 @@
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
@@ -3059,28 +3126,28 @@
         <v>7.9</v>
       </c>
       <c r="M15" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="R15" t="n">
         <v>9.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T15" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U15" t="n">
         <v>20.1</v>
@@ -3095,22 +3162,22 @@
         <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3143,7 +3210,7 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -3161,10 +3228,10 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3182,10 +3249,10 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="n">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>35.2</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>77.59999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O16" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U16" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W16" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.6</v>
+        <v>-7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,10 +3371,10 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3325,10 +3392,10 @@
         <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
@@ -3343,7 +3410,7 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV16" t="n">
         <v>16</v>
@@ -3352,16 +3419,16 @@
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3559,7 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M18" t="n">
         <v>16.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q18" t="n">
         <v>0.724</v>
@@ -3629,7 +3696,7 @@
         <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="V18" t="n">
         <v>15.4</v>
@@ -3641,22 +3708,22 @@
         <v>3.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3677,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3701,10 +3768,10 @@
         <v>7</v>
       </c>
       <c r="AS18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
@@ -3725,7 +3792,7 @@
         <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.442</v>
+        <v>0.431</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,10 +3845,10 @@
         <v>33.9</v>
       </c>
       <c r="J19" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
@@ -3790,28 +3857,28 @@
         <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="O19" t="n">
         <v>20.3</v>
       </c>
       <c r="P19" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R19" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T19" t="n">
-        <v>42.7</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
         <v>15.6</v>
@@ -3820,10 +3887,10 @@
         <v>6.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z19" t="n">
         <v>22.7</v>
@@ -3835,13 +3902,13 @@
         <v>93.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.1</v>
+        <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3889,7 +3956,7 @@
         <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>0.694</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,10 +4027,10 @@
         <v>38.5</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
@@ -3972,7 +4039,7 @@
         <v>20.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O20" t="n">
         <v>15.4</v>
@@ -3981,16 +4048,16 @@
         <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.781</v>
+        <v>0.782</v>
       </c>
       <c r="R20" t="n">
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
@@ -4002,13 +4069,13 @@
         <v>7.7</v>
       </c>
       <c r="X20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
@@ -4017,10 +4084,10 @@
         <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4065,22 +4132,22 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4417,7 +4484,7 @@
         <v>10</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4444,7 +4511,7 @@
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
@@ -4453,7 +4520,7 @@
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -4593,13 +4660,13 @@
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -4617,7 +4684,7 @@
         <v>16</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>22</v>
@@ -4626,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4990,10 +5057,10 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.46</v>
+        <v>0.469</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
@@ -5052,28 +5119,28 @@
         <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.37</v>
       </c>
       <c r="O26" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
         <v>10.3</v>
@@ -5082,13 +5149,13 @@
         <v>29.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V26" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W26" t="n">
         <v>8.1</v>
@@ -5100,19 +5167,19 @@
         <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5124,16 +5191,16 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>23</v>
@@ -5184,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5306,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5339,7 +5406,7 @@
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -5476,28 +5543,28 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF28" t="n">
         <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5670,7 +5737,7 @@
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>9</v>
@@ -5727,7 +5794,7 @@
         <v>7</v>
       </c>
       <c r="BA29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -5885,16 +5952,16 @@
         <v>17</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6067,10 +6134,10 @@
         <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-12-2007-08</t>
+          <t>2008-02-12</t>
         </is>
       </c>
     </row>
